--- a/docs/03-BOM/BOM-SB.xlsx
+++ b/docs/03-BOM/BOM-SB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/265be667ff01dada/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/suburns_sundevils_asu_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{FF648E54-101D-4F4E-8BA3-30584BCDF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF9853F-D9FA-4E31-A190-432F49C12413}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D575526E-C373-4C7C-A338-7D418C6F6A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{CCD10F56-1120-44D6-AAA1-C089EACF829A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{030AE3DF-76FC-4EC0-8AE4-331E12756148}"/>
   </bookViews>
   <sheets>
     <sheet name="egr304-subsystem schematic desi" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
-  <si>
-    <t>Reference</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>C:\Users\umutb\OneDrive - Arizona State University\egr304\egr304-subsystem schematic design-sb\egr304-subsystem schematic design-sb.kicad_sch</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2025-11-10T13:32:52-0700</t>
+  </si>
+  <si>
+    <t>Tool:</t>
+  </si>
+  <si>
+    <t>Eeschema 9.0.4</t>
+  </si>
+  <si>
+    <t>Generator:</t>
+  </si>
+  <si>
+    <t>C:\Program Files\KiCad\9.0\bin\scripting\plugins/bom_csv_grouped_by_value.py</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>Collated Components:</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
+    <t>Reference(s)</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
+    <t>LibPart</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
     <t>DNP</t>
   </si>
   <si>
-    <t>Exclude from BOM</t>
-  </si>
-  <si>
-    <t>Exclude from Board</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
-    <t>C1,C4</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sim.Pins</t>
+  </si>
+  <si>
+    <t>C1, C4, C5, C6</t>
   </si>
   <si>
     <t>.1uF</t>
   </si>
   <si>
+    <t>Device:C</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -67,37 +112,91 @@
     <t>CN1</t>
   </si>
   <si>
-    <t>D1,D2</t>
+    <t>CuriositNano_SB:curiosityNano_SB</t>
+  </si>
+  <si>
+    <t>myfootprints':curiostity nano-sb V2</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
+    <t>Device:LED</t>
+  </si>
+  <si>
+    <t>LED_THT:LED_D2.0mm_W4.8mm_H2.5mm_FlatTop</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
     <t>200mA</t>
   </si>
   <si>
-    <t>J1,J7,J9,J12,J13,J14,J16,J17,J18,J19,J20,J21,J22,J23,J24</t>
+    <t>Device:Fuse</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_Bourns_MF-RG300</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>J1, J12, J13, J14, J16, J18, J19, J20, J21, J22, J23</t>
   </si>
   <si>
     <t>Conn_01x01 power</t>
   </si>
   <si>
+    <t>Connector_Generic:Conn_01x01</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x01_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x01, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
+    <t>voltage regulator smbols:Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector_BarrelJack:BarrelJack_CUI_PJ-102AH_Horizontal</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
     <t>J4</t>
   </si>
   <si>
     <t>3 (Sound Board)</t>
   </si>
   <si>
-    <t>J6,J15</t>
+    <t>Connector_Generic:Conn_01x08</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x08, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>J6, J15</t>
   </si>
   <si>
     <t>Conn_01x01 ground</t>
@@ -106,7 +205,7 @@
     <t>J10</t>
   </si>
   <si>
-    <t>1 (Motion Board)</t>
+    <t>1 (NIGHT LIGHT BOARD)</t>
   </si>
   <si>
     <t>J11</t>
@@ -115,19 +214,37 @@
     <t>2 (Light Board)</t>
   </si>
   <si>
-    <t>R1,R11</t>
-  </si>
-  <si>
-    <t>R2,R5,R6,R8,R9,R10</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Motor_DC</t>
+  </si>
+  <si>
+    <t>Motor:Motor_DC</t>
+  </si>
+  <si>
+    <t>myfootprints':MOTOR PAD</t>
+  </si>
+  <si>
+    <t>DC Motor</t>
+  </si>
+  <si>
+    <t>R2, R8, R9, R10</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>1k</t>
+    <t>Device:R_US</t>
+  </si>
+  <si>
+    <t>Resistor_THT:R_Axial_DIN0309_L9.0mm_D3.2mm_P12.70mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Resistor, US symbol</t>
+  </si>
+  <si>
+    <t>R11</t>
   </si>
   <si>
     <t>R14</t>
@@ -136,16 +253,46 @@
     <t>1K</t>
   </si>
   <si>
-    <t>RV1</t>
-  </si>
-  <si>
-    <t>R_Potentiometer_US</t>
-  </si>
-  <si>
-    <t>Sb-MCP1</t>
-  </si>
-  <si>
-    <t>MCP6004-sb:MCP6004-sb</t>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW_END</t>
+  </si>
+  <si>
+    <t>Switch:SW_DPST</t>
+  </si>
+  <si>
+    <t>myfootprints':PUSHBUTTON_SB</t>
+  </si>
+  <si>
+    <t>Double Pole Single Throw (DPST) Switch</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW_START</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW_RESET</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>SW_DEBUG</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>H-Bridge:FAN8011N_DMA-SB</t>
+  </si>
+  <si>
+    <t>myfootprints':H-BRIDGE</t>
   </si>
   <si>
     <t>U2</t>
@@ -154,10 +301,10 @@
     <t>LM7805_SEUB</t>
   </si>
   <si>
-    <t>SW_MODE, SW_ON/OFF, SW_RESET, SW_DEBUG</t>
-  </si>
-  <si>
-    <t>SW2, SW3, SW4, SW5</t>
+    <t>voltage regulator smbols:LM7805</t>
+  </si>
+  <si>
+    <t>myfootprints':SIP-3</t>
   </si>
 </sst>
 </file>
@@ -1017,306 +1164,742 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE0859C-ADCB-41EA-BED5-23902AFB5F65}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC8B17C-122D-4F07-94F9-404809A08CD2}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4</v>
+      </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>220</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5</v>
+      </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
       <c r="B15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
       <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/docs/03-BOM/BOM-SB.xlsx
+++ b/docs/03-BOM/BOM-SB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/suburns_sundevils_asu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umutb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D575526E-C373-4C7C-A338-7D418C6F6A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4F5DBA-827D-475C-B0D2-D105A7475A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{030AE3DF-76FC-4EC0-8AE4-331E12756148}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{9B925391-A1F9-41CD-B60C-D511D70742C6}"/>
   </bookViews>
   <sheets>
     <sheet name="egr304-subsystem schematic desi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
   <si>
     <t>Source:</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-11-10T13:32:52-0700</t>
+    <t>2025-11-11T11:25:05-0700</t>
   </si>
   <si>
     <t>Tool:</t>
@@ -208,10 +208,19 @@
     <t>1 (NIGHT LIGHT BOARD)</t>
   </si>
   <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>2 (Light Board)</t>
+    <t>JP1, JP2</t>
+  </si>
+  <si>
+    <t>Jumper_2_Bridged</t>
+  </si>
+  <si>
+    <t>Jumper:Jumper_2_Bridged</t>
+  </si>
+  <si>
+    <t>myfootprints':TestPoint_2Pads_Pitch2.54mm_Drill0.8mm-sb</t>
+  </si>
+  <si>
+    <t>Jumper, 2-pole, closed/bridged</t>
   </si>
   <si>
     <t>M1</t>
@@ -1164,10 +1173,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC8B17C-122D-4F07-94F9-404809A08CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198FA9EE-47AA-458C-A504-89D5E2BB9732}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1208,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1573,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -1582,10 +1593,10 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1594,10 +1605,10 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1608,16 +1619,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1626,10 +1637,10 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1640,16 +1651,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -1658,10 +1669,10 @@
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1672,16 +1683,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
@@ -1690,10 +1701,10 @@
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1704,28 +1715,28 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="s">
-        <v>73</v>
-      </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1736,16 +1747,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -1754,10 +1765,10 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1768,17 +1779,17 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
       <c r="G26" t="s">
         <v>24</v>
       </c>
@@ -1786,10 +1797,10 @@
         <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1800,28 +1811,28 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1832,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
@@ -1850,10 +1861,10 @@
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1864,19 +1875,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1887,19 +1898,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
